--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2802021.145354698</v>
+        <v>2799477.335847616</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,64 +659,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.31870353900228</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>115.3066195468971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>219.4450108596164</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.86835121197986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>89.14525753719026</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.3935874176812</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39467431752531</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="F5" t="n">
-        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>244.5758944429107</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>311.0954579813412</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>262.2495876881329</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115232</v>
+        <v>18.47335059661959</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099061</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180255</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611851</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>146.283407496412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>34.21058558914873</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106825009</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223678</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182084</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4338103776702</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060099</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="X2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="Y2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4407,16 +4407,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>141.1068094710482</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>287.8512331313449</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
         <v>739.5286634293598</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496282</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>573.2316820178855</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W3" t="n">
-        <v>318.9943252896839</v>
+        <v>375.673238946074</v>
       </c>
       <c r="X3" t="n">
-        <v>111.1428250841511</v>
+        <v>375.673238946074</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9129401811201</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>778.9936585850969</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>610.05747565719</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>459.9408362448543</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>459.9408362448543</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080072</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.8659691080072</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4644,10 +4644,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
         <v>338.874007230231</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.1351228789782</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>325.1351228789782</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>553.1246737769956</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>325.1351228789782</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.1351228789782</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.13137766498</v>
+        <v>985.3952443693079</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.168860724568</v>
+        <v>985.3952443693079</v>
       </c>
       <c r="D8" t="n">
-        <v>762.9031621178178</v>
+        <v>627.1295457625574</v>
       </c>
       <c r="E8" t="n">
-        <v>377.1149095195736</v>
+        <v>627.1295457625574</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478451</v>
+        <v>620.184045013354</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685573</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467174</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607429</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661161</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2351.810676439054</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2098.229497964624</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999216</v>
+        <v>2098.229497964624</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729102</v>
+        <v>1745.460842694509</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729102</v>
+        <v>1371.99508443343</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.731217729102</v>
+        <v>1371.99508443343</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010754</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199485</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586972</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532417</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801267</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763149</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>69.87120530445115</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963719</v>
+        <v>113.4887579637186</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572713</v>
+        <v>559.9063389572705</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907529</v>
+        <v>1116.272322425153</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865055</v>
+        <v>1479.338790899454</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337624</v>
+        <v>1866.423193372023</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325014</v>
+        <v>2198.310003359411</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789041</v>
+        <v>2445.345361789035</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251696</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519832</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.33685679163</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586097</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686165</v>
+        <v>220.1474381347625</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407097</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283739</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459808</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480704</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380166</v>
+        <v>76.63468308380136</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1336.515802634453</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1113.534501108858</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>824.4161276035002</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>569.7316393976133</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>569.7316393976133</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542386</v>
+        <v>341.742088499596</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988563</v>
+        <v>220.1474381347625</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1938.2863919474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.869221910439</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,22 +5528,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055768</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5180363231837</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5180363231837</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,7 +6953,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6965,7 +6965,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,10 +7427,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475094961</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094977</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348497</v>
+        <v>20.98618304348516</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.42624789262516</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187155</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606945</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>20.09032791459865</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.2829540756229</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.00765808</v>
+        <v>390680.0076580783</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606925</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.748333510742919e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101786</v>
+        <v>95270.23779101748</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501115</v>
+        <v>140465.2517501119</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.0322517935</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179353</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179356</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26473,13 +26473,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567892</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-317003.6892764458</v>
       </c>
       <c r="C6" t="n">
-        <v>363084.2913147475</v>
+        <v>363084.2913147474</v>
       </c>
       <c r="D6" t="n">
-        <v>53311.33315416315</v>
+        <v>53311.33315416434</v>
       </c>
       <c r="E6" t="n">
-        <v>45697.15060786191</v>
+        <v>45662.41268242504</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685546</v>
+        <v>553571.6447431182</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.644743119</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685544</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="J6" t="n">
-        <v>484607.22824944</v>
+        <v>484572.4903240046</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="L6" t="n">
-        <v>458336.1448775364</v>
+        <v>458301.406952101</v>
       </c>
       <c r="M6" t="n">
-        <v>420888.4069730854</v>
+        <v>420853.6690476498</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685541</v>
+        <v>553571.6447431184</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.6447431188</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="M2" t="n">
+        <v>3.368868402633089e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627837</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856966</v>
+        <v>640.1406900856952</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933055</v>
+        <v>319.6474457933041</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788903</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.426810084189</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.567598013953</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.426810084189</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.426810084189</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.567598013953</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>108.3072476105185</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.7767292434211</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.5374382401141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.4383927642561</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>269.8639561851522</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,16 +27667,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>41.94710389368029</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>95.78058776037028</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.2995721001166</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164532831</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164526866</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899036</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090967</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.722622624190989e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.934838294275448e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546675</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763194</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354934</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359945</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307898</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140478</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026276</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461717</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366402</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942757</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650341</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007809</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>300.5543663814913</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>121.2219182534623</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34872,7 +34872,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705673</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655062</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087218</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091031</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797638</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234312</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127602</v>
+        <v>62.90656844127574</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>450.9268494884362</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>561.9858418867497</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396987</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074643</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899267</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873325</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641533</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563365</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>161.9999866016171</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
